--- a/eDNA 12S metab/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA 12S metab/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -461,7 +461,7 @@
         <v>66</v>
       </c>
       <c r="H3">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>309</v>
       </c>
       <c r="H11">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12">
@@ -884,7 +884,7 @@
         <v>1035</v>
       </c>
       <c r="H17">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18">
@@ -1015,7 +1015,7 @@
         <v>178</v>
       </c>
       <c r="H21">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22">
@@ -1332,7 +1332,7 @@
         <v>153</v>
       </c>
       <c r="H31">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32">
@@ -1516,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="H37">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1550,7 @@
         <v>374</v>
       </c>
       <c r="H38">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39">
@@ -1833,7 +1833,7 @@
         <v>794</v>
       </c>
       <c r="H47">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48">
@@ -1959,7 +1959,7 @@
         <v>147</v>
       </c>
       <c r="H51">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="52">
@@ -2308,7 +2308,7 @@
         <v>132</v>
       </c>
       <c r="H62">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="63">
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="71">
@@ -2633,7 +2633,7 @@
         <v>132</v>
       </c>
       <c r="H72">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="73">
@@ -2890,7 +2890,7 @@
         <v>52</v>
       </c>
       <c r="H80">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="81">
@@ -3354,7 +3354,7 @@
         <v>63</v>
       </c>
       <c r="H95">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96">
@@ -3516,7 +3516,7 @@
         <v>130</v>
       </c>
       <c r="H100">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101">
@@ -3891,7 +3891,7 @@
         <v>257</v>
       </c>
       <c r="H112">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="113">
@@ -4516,7 +4516,7 @@
         <v>259</v>
       </c>
       <c r="H138">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="139">
@@ -4534,7 +4534,7 @@
         <v>152</v>
       </c>
       <c r="H139">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140">
@@ -4552,7 +4552,7 @@
         <v>98</v>
       </c>
       <c r="H140">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="141">
@@ -4570,7 +4570,7 @@
         <v>66</v>
       </c>
       <c r="H141">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="142">
@@ -4624,7 +4624,7 @@
         <v>17</v>
       </c>
       <c r="H144">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/eDNA 12S metab/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA 12S metab/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -1015,7 +1015,7 @@
         <v>178</v>
       </c>
       <c r="H21">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22">
@@ -1175,7 +1175,7 @@
         <v>74</v>
       </c>
       <c r="H26">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27">
@@ -1516,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="H37">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1550,7 @@
         <v>374</v>
       </c>
       <c r="H38">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39">
@@ -1833,7 +1833,7 @@
         <v>794</v>
       </c>
       <c r="H47">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48">
@@ -2308,7 +2308,7 @@
         <v>132</v>
       </c>
       <c r="H62">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="63">
@@ -2444,7 +2444,7 @@
         <v>1652</v>
       </c>
       <c r="H66">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67">
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="71">
@@ -2633,7 +2633,7 @@
         <v>132</v>
       </c>
       <c r="H72">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73">
@@ -2890,7 +2890,7 @@
         <v>52</v>
       </c>
       <c r="H80">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="81">
@@ -3354,7 +3354,7 @@
         <v>63</v>
       </c>
       <c r="H95">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96">
@@ -3744,7 +3744,7 @@
         <v>90</v>
       </c>
       <c r="H107">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="108">
@@ -3799,7 +3799,7 @@
         <v>256</v>
       </c>
       <c r="H109">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="110">
@@ -4444,7 +4444,7 @@
         <v>456</v>
       </c>
       <c r="H134">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135">
@@ -4516,7 +4516,7 @@
         <v>259</v>
       </c>
       <c r="H138">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="139">
@@ -4534,7 +4534,7 @@
         <v>152</v>
       </c>
       <c r="H139">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="140">
@@ -4552,7 +4552,7 @@
         <v>98</v>
       </c>
       <c r="H140">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="141">
@@ -4570,7 +4570,7 @@
         <v>66</v>
       </c>
       <c r="H141">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="142">
@@ -4588,7 +4588,7 @@
         <v>52</v>
       </c>
       <c r="H142">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="143">
@@ -4624,7 +4624,7 @@
         <v>17</v>
       </c>
       <c r="H144">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
